--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.44872169319913</v>
+        <v>1.921795333333333</v>
       </c>
       <c r="H2">
-        <v>1.44872169319913</v>
+        <v>5.765385999999999</v>
       </c>
       <c r="I2">
-        <v>0.1618007436349757</v>
+        <v>0.1981502018195672</v>
       </c>
       <c r="J2">
-        <v>0.1618007436349757</v>
+        <v>0.1981502018195673</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.67957182098999</v>
+        <v>2.500933333333333</v>
       </c>
       <c r="N2">
-        <v>1.67957182098999</v>
+        <v>7.5028</v>
       </c>
       <c r="O2">
-        <v>0.09157577006901858</v>
+        <v>0.129395502869887</v>
       </c>
       <c r="P2">
-        <v>0.09157577006901858</v>
+        <v>0.129395502869887</v>
       </c>
       <c r="Q2">
-        <v>2.433232132354164</v>
+        <v>4.806282008977777</v>
       </c>
       <c r="R2">
-        <v>2.433232132354164</v>
+        <v>43.25653808079999</v>
       </c>
       <c r="S2">
-        <v>0.01481702769611275</v>
+        <v>0.0256397450082125</v>
       </c>
       <c r="T2">
-        <v>0.01481702769611275</v>
+        <v>0.0256397450082125</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.44872169319913</v>
+        <v>1.921795333333333</v>
       </c>
       <c r="H3">
-        <v>1.44872169319913</v>
+        <v>5.765385999999999</v>
       </c>
       <c r="I3">
-        <v>0.1618007436349757</v>
+        <v>0.1981502018195672</v>
       </c>
       <c r="J3">
-        <v>0.1618007436349757</v>
+        <v>0.1981502018195673</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.74610171986846</v>
+        <v>7.782607</v>
       </c>
       <c r="N3">
-        <v>7.74610171986846</v>
+        <v>23.347821</v>
       </c>
       <c r="O3">
-        <v>0.4223428978534471</v>
+        <v>0.4026634108880828</v>
       </c>
       <c r="P3">
-        <v>0.4223428978534471</v>
+        <v>0.4026634108880828</v>
       </c>
       <c r="Q3">
-        <v>11.22194559930053</v>
+        <v>14.95657781376733</v>
       </c>
       <c r="R3">
-        <v>11.22194559930053</v>
+        <v>134.609200323906</v>
       </c>
       <c r="S3">
-        <v>0.0683353949416383</v>
+        <v>0.07978783613282892</v>
       </c>
       <c r="T3">
-        <v>0.0683353949416383</v>
+        <v>0.07978783613282894</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.44872169319913</v>
+        <v>1.921795333333333</v>
       </c>
       <c r="H4">
-        <v>1.44872169319913</v>
+        <v>5.765385999999999</v>
       </c>
       <c r="I4">
-        <v>0.1618007436349757</v>
+        <v>0.1981502018195672</v>
       </c>
       <c r="J4">
-        <v>0.1618007436349757</v>
+        <v>0.1981502018195673</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.45320023956502</v>
+        <v>4.565521</v>
       </c>
       <c r="N4">
-        <v>4.45320023956502</v>
+        <v>13.696563</v>
       </c>
       <c r="O4">
-        <v>0.2428030978570075</v>
+        <v>0.2362149673420707</v>
       </c>
       <c r="P4">
-        <v>0.2428030978570075</v>
+        <v>0.2362149673420707</v>
       </c>
       <c r="Q4">
-        <v>6.451447791217407</v>
+        <v>8.773996952035333</v>
       </c>
       <c r="R4">
-        <v>6.451447791217407</v>
+        <v>78.96597256831799</v>
       </c>
       <c r="S4">
-        <v>0.03928572179013957</v>
+        <v>0.04680604345163379</v>
       </c>
       <c r="T4">
-        <v>0.03928572179013957</v>
+        <v>0.0468060434516338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.44872169319913</v>
+        <v>1.921795333333333</v>
       </c>
       <c r="H5">
-        <v>1.44872169319913</v>
+        <v>5.765385999999999</v>
       </c>
       <c r="I5">
-        <v>0.1618007436349757</v>
+        <v>0.1981502018195672</v>
       </c>
       <c r="J5">
-        <v>0.1618007436349757</v>
+        <v>0.1981502018195673</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.46191461506733</v>
+        <v>4.478761333333333</v>
       </c>
       <c r="N5">
-        <v>4.46191461506733</v>
+        <v>13.436284</v>
       </c>
       <c r="O5">
-        <v>0.2432782342205267</v>
+        <v>0.2317261188999595</v>
       </c>
       <c r="P5">
-        <v>0.2432782342205267</v>
+        <v>0.2317261188999595</v>
       </c>
       <c r="Q5">
-        <v>6.464072496050286</v>
+        <v>8.607262629513777</v>
       </c>
       <c r="R5">
-        <v>6.464072496050286</v>
+        <v>77.46536366562398</v>
       </c>
       <c r="S5">
-        <v>0.03936259920708501</v>
+        <v>0.04591657722689201</v>
       </c>
       <c r="T5">
-        <v>0.03936259920708501</v>
+        <v>0.04591657722689203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.21159374006979</v>
+        <v>4.24427</v>
       </c>
       <c r="H6">
-        <v>4.21159374006979</v>
+        <v>12.73281</v>
       </c>
       <c r="I6">
-        <v>0.4703726065749159</v>
+        <v>0.437613174769253</v>
       </c>
       <c r="J6">
-        <v>0.4703726065749159</v>
+        <v>0.437613174769253</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.67957182098999</v>
+        <v>2.500933333333333</v>
       </c>
       <c r="N6">
-        <v>1.67957182098999</v>
+        <v>7.5028</v>
       </c>
       <c r="O6">
-        <v>0.09157577006901858</v>
+        <v>0.129395502869887</v>
       </c>
       <c r="P6">
-        <v>0.09157577006901858</v>
+        <v>0.129395502869887</v>
       </c>
       <c r="Q6">
-        <v>7.07367416727906</v>
+        <v>10.61463631866667</v>
       </c>
       <c r="R6">
-        <v>7.07367416727906</v>
+        <v>95.53172686800001</v>
       </c>
       <c r="S6">
-        <v>0.04307473366646943</v>
+        <v>0.05662517681175523</v>
       </c>
       <c r="T6">
-        <v>0.04307473366646943</v>
+        <v>0.05662517681175522</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.21159374006979</v>
+        <v>4.24427</v>
       </c>
       <c r="H7">
-        <v>4.21159374006979</v>
+        <v>12.73281</v>
       </c>
       <c r="I7">
-        <v>0.4703726065749159</v>
+        <v>0.437613174769253</v>
       </c>
       <c r="J7">
-        <v>0.4703726065749159</v>
+        <v>0.437613174769253</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.74610171986846</v>
+        <v>7.782607</v>
       </c>
       <c r="N7">
-        <v>7.74610171986846</v>
+        <v>23.347821</v>
       </c>
       <c r="O7">
-        <v>0.4223428978534471</v>
+        <v>0.4026634108880828</v>
       </c>
       <c r="P7">
-        <v>0.4223428978534471</v>
+        <v>0.4026634108880828</v>
       </c>
       <c r="Q7">
-        <v>32.62343351334184</v>
+        <v>33.03148541189</v>
       </c>
       <c r="R7">
-        <v>32.62343351334184</v>
+        <v>297.28336870701</v>
       </c>
       <c r="S7">
-        <v>0.1986585297317294</v>
+        <v>0.1762108136021501</v>
       </c>
       <c r="T7">
-        <v>0.1986585297317294</v>
+        <v>0.1762108136021501</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.21159374006979</v>
+        <v>4.24427</v>
       </c>
       <c r="H8">
-        <v>4.21159374006979</v>
+        <v>12.73281</v>
       </c>
       <c r="I8">
-        <v>0.4703726065749159</v>
+        <v>0.437613174769253</v>
       </c>
       <c r="J8">
-        <v>0.4703726065749159</v>
+        <v>0.437613174769253</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.45320023956502</v>
+        <v>4.565521</v>
       </c>
       <c r="N8">
-        <v>4.45320023956502</v>
+        <v>13.696563</v>
       </c>
       <c r="O8">
-        <v>0.2428030978570075</v>
+        <v>0.2362149673420707</v>
       </c>
       <c r="P8">
-        <v>0.2428030978570075</v>
+        <v>0.2362149673420707</v>
       </c>
       <c r="Q8">
-        <v>18.75507025222933</v>
+        <v>19.37730381467</v>
       </c>
       <c r="R8">
-        <v>18.75507025222933</v>
+        <v>174.39573433203</v>
       </c>
       <c r="S8">
-        <v>0.114207926023465</v>
+        <v>0.103370781786579</v>
       </c>
       <c r="T8">
-        <v>0.114207926023465</v>
+        <v>0.103370781786579</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.21159374006979</v>
+        <v>4.24427</v>
       </c>
       <c r="H9">
-        <v>4.21159374006979</v>
+        <v>12.73281</v>
       </c>
       <c r="I9">
-        <v>0.4703726065749159</v>
+        <v>0.437613174769253</v>
       </c>
       <c r="J9">
-        <v>0.4703726065749159</v>
+        <v>0.437613174769253</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.46191461506733</v>
+        <v>4.478761333333333</v>
       </c>
       <c r="N9">
-        <v>4.46191461506733</v>
+        <v>13.436284</v>
       </c>
       <c r="O9">
-        <v>0.2432782342205267</v>
+        <v>0.2317261188999595</v>
       </c>
       <c r="P9">
-        <v>0.2432782342205267</v>
+        <v>0.2317261188999595</v>
       </c>
       <c r="Q9">
-        <v>18.79177166154347</v>
+        <v>19.00907236422666</v>
       </c>
       <c r="R9">
-        <v>18.79177166154347</v>
+        <v>171.08165127804</v>
       </c>
       <c r="S9">
-        <v>0.114431417153252</v>
+        <v>0.1014064025687687</v>
       </c>
       <c r="T9">
-        <v>0.114431417153252</v>
+        <v>0.1014064025687687</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.939536673093014</v>
+        <v>1.068596333333333</v>
       </c>
       <c r="H10">
-        <v>0.939536673093014</v>
+        <v>3.205789</v>
       </c>
       <c r="I10">
-        <v>0.1049323228142519</v>
+        <v>0.1101795677411623</v>
       </c>
       <c r="J10">
-        <v>0.1049323228142519</v>
+        <v>0.1101795677411623</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.67957182098999</v>
+        <v>2.500933333333333</v>
       </c>
       <c r="N10">
-        <v>1.67957182098999</v>
+        <v>7.5028</v>
       </c>
       <c r="O10">
-        <v>0.09157577006901858</v>
+        <v>0.129395502869887</v>
       </c>
       <c r="P10">
-        <v>0.09157577006901858</v>
+        <v>0.129395502869887</v>
       </c>
       <c r="Q10">
-        <v>1.57801932091371</v>
+        <v>2.672488189911111</v>
       </c>
       <c r="R10">
-        <v>1.57801932091371</v>
+        <v>24.0523937092</v>
       </c>
       <c r="S10">
-        <v>0.009609258266845963</v>
+        <v>0.01425674057385447</v>
       </c>
       <c r="T10">
-        <v>0.009609258266845963</v>
+        <v>0.01425674057385447</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.939536673093014</v>
+        <v>1.068596333333333</v>
       </c>
       <c r="H11">
-        <v>0.939536673093014</v>
+        <v>3.205789</v>
       </c>
       <c r="I11">
-        <v>0.1049323228142519</v>
+        <v>0.1101795677411623</v>
       </c>
       <c r="J11">
-        <v>0.1049323228142519</v>
+        <v>0.1101795677411623</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.74610171986846</v>
+        <v>7.782607</v>
       </c>
       <c r="N11">
-        <v>7.74610171986846</v>
+        <v>23.347821</v>
       </c>
       <c r="O11">
-        <v>0.4223428978534471</v>
+        <v>0.4026634108880828</v>
       </c>
       <c r="P11">
-        <v>0.4223428978534471</v>
+        <v>0.4026634108880828</v>
       </c>
       <c r="Q11">
-        <v>7.277746639325287</v>
+        <v>8.316465303974335</v>
       </c>
       <c r="R11">
-        <v>7.277746639325287</v>
+        <v>74.848187735769</v>
       </c>
       <c r="S11">
-        <v>0.04431742129586452</v>
+        <v>0.04436528055683098</v>
       </c>
       <c r="T11">
-        <v>0.04431742129586452</v>
+        <v>0.04436528055683098</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.939536673093014</v>
+        <v>1.068596333333333</v>
       </c>
       <c r="H12">
-        <v>0.939536673093014</v>
+        <v>3.205789</v>
       </c>
       <c r="I12">
-        <v>0.1049323228142519</v>
+        <v>0.1101795677411623</v>
       </c>
       <c r="J12">
-        <v>0.1049323228142519</v>
+        <v>0.1101795677411623</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.45320023956502</v>
+        <v>4.565521</v>
       </c>
       <c r="N12">
-        <v>4.45320023956502</v>
+        <v>13.696563</v>
       </c>
       <c r="O12">
-        <v>0.2428030978570075</v>
+        <v>0.2362149673420707</v>
       </c>
       <c r="P12">
-        <v>0.2428030978570075</v>
+        <v>0.2362149673420707</v>
       </c>
       <c r="Q12">
-        <v>4.183944937697932</v>
+        <v>4.878699000356335</v>
       </c>
       <c r="R12">
-        <v>4.183944937697932</v>
+        <v>43.908291003207</v>
       </c>
       <c r="S12">
-        <v>0.0254778930446319</v>
+        <v>0.02602606299574212</v>
       </c>
       <c r="T12">
-        <v>0.0254778930446319</v>
+        <v>0.02602606299574212</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.939536673093014</v>
+        <v>1.068596333333333</v>
       </c>
       <c r="H13">
-        <v>0.939536673093014</v>
+        <v>3.205789</v>
       </c>
       <c r="I13">
-        <v>0.1049323228142519</v>
+        <v>0.1101795677411623</v>
       </c>
       <c r="J13">
-        <v>0.1049323228142519</v>
+        <v>0.1101795677411623</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.46191461506733</v>
+        <v>4.478761333333333</v>
       </c>
       <c r="N13">
-        <v>4.46191461506733</v>
+        <v>13.436284</v>
       </c>
       <c r="O13">
-        <v>0.2432782342205267</v>
+        <v>0.2317261188999595</v>
       </c>
       <c r="P13">
-        <v>0.2432782342205267</v>
+        <v>0.2317261188999595</v>
       </c>
       <c r="Q13">
-        <v>4.192132413065456</v>
+        <v>4.785987938675111</v>
       </c>
       <c r="R13">
-        <v>4.192132413065456</v>
+        <v>43.073891448076</v>
       </c>
       <c r="S13">
-        <v>0.02552775020690949</v>
+        <v>0.02553148361473472</v>
       </c>
       <c r="T13">
-        <v>0.02552775020690949</v>
+        <v>0.02553148361473472</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.35388729342391</v>
+        <v>2.464018</v>
       </c>
       <c r="H14">
-        <v>2.35388729342391</v>
+        <v>7.392054</v>
       </c>
       <c r="I14">
-        <v>0.2628943269758566</v>
+        <v>0.2540570556700175</v>
       </c>
       <c r="J14">
-        <v>0.2628943269758566</v>
+        <v>0.2540570556700175</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.67957182098999</v>
+        <v>2.500933333333333</v>
       </c>
       <c r="N14">
-        <v>1.67957182098999</v>
+        <v>7.5028</v>
       </c>
       <c r="O14">
-        <v>0.09157577006901858</v>
+        <v>0.129395502869887</v>
       </c>
       <c r="P14">
-        <v>0.09157577006901858</v>
+        <v>0.129395502869887</v>
       </c>
       <c r="Q14">
-        <v>3.953522767821195</v>
+        <v>6.162344750133332</v>
       </c>
       <c r="R14">
-        <v>3.953522767821195</v>
+        <v>55.46110275119999</v>
       </c>
       <c r="S14">
-        <v>0.02407475043959044</v>
+        <v>0.03287384047606479</v>
       </c>
       <c r="T14">
-        <v>0.02407475043959044</v>
+        <v>0.03287384047606479</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.35388729342391</v>
+        <v>2.464018</v>
       </c>
       <c r="H15">
-        <v>2.35388729342391</v>
+        <v>7.392054</v>
       </c>
       <c r="I15">
-        <v>0.2628943269758566</v>
+        <v>0.2540570556700175</v>
       </c>
       <c r="J15">
-        <v>0.2628943269758566</v>
+        <v>0.2540570556700175</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.74610171986846</v>
+        <v>7.782607</v>
       </c>
       <c r="N15">
-        <v>7.74610171986846</v>
+        <v>23.347821</v>
       </c>
       <c r="O15">
-        <v>0.4223428978534471</v>
+        <v>0.4026634108880828</v>
       </c>
       <c r="P15">
-        <v>0.4223428978534471</v>
+        <v>0.4026634108880828</v>
       </c>
       <c r="Q15">
-        <v>18.23345041196746</v>
+        <v>19.176483734926</v>
       </c>
       <c r="R15">
-        <v>18.23345041196746</v>
+        <v>172.588353614334</v>
       </c>
       <c r="S15">
-        <v>0.1110315518842149</v>
+        <v>0.1022994805962728</v>
       </c>
       <c r="T15">
-        <v>0.1110315518842149</v>
+        <v>0.1022994805962728</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.35388729342391</v>
+        <v>2.464018</v>
       </c>
       <c r="H16">
-        <v>2.35388729342391</v>
+        <v>7.392054</v>
       </c>
       <c r="I16">
-        <v>0.2628943269758566</v>
+        <v>0.2540570556700175</v>
       </c>
       <c r="J16">
-        <v>0.2628943269758566</v>
+        <v>0.2540570556700175</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.45320023956502</v>
+        <v>4.565521</v>
       </c>
       <c r="N16">
-        <v>4.45320023956502</v>
+        <v>13.696563</v>
       </c>
       <c r="O16">
-        <v>0.2428030978570075</v>
+        <v>0.2362149673420707</v>
       </c>
       <c r="P16">
-        <v>0.2428030978570075</v>
+        <v>0.2362149673420707</v>
       </c>
       <c r="Q16">
-        <v>10.48233145898441</v>
+        <v>11.249525923378</v>
       </c>
       <c r="R16">
-        <v>10.48233145898441</v>
+        <v>101.245733310402</v>
       </c>
       <c r="S16">
-        <v>0.06383155699877104</v>
+        <v>0.06001207910811581</v>
       </c>
       <c r="T16">
-        <v>0.06383155699877104</v>
+        <v>0.06001207910811582</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.35388729342391</v>
+        <v>2.464018</v>
       </c>
       <c r="H17">
-        <v>2.35388729342391</v>
+        <v>7.392054</v>
       </c>
       <c r="I17">
-        <v>0.2628943269758566</v>
+        <v>0.2540570556700175</v>
       </c>
       <c r="J17">
-        <v>0.2628943269758566</v>
+        <v>0.2540570556700175</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.46191461506733</v>
+        <v>4.478761333333333</v>
       </c>
       <c r="N17">
-        <v>4.46191461506733</v>
+        <v>13.436284</v>
       </c>
       <c r="O17">
-        <v>0.2432782342205267</v>
+        <v>0.2317261188999595</v>
       </c>
       <c r="P17">
-        <v>0.2432782342205267</v>
+        <v>0.2317261188999595</v>
       </c>
       <c r="Q17">
-        <v>10.50284411674942</v>
+        <v>11.03574854303733</v>
       </c>
       <c r="R17">
-        <v>10.50284411674942</v>
+        <v>99.32173688733599</v>
       </c>
       <c r="S17">
-        <v>0.06395646765328018</v>
+        <v>0.05887165548956411</v>
       </c>
       <c r="T17">
-        <v>0.06395646765328018</v>
+        <v>0.05887165548956412</v>
       </c>
     </row>
   </sheetData>
